--- a/OFET fab table copy.xlsx
+++ b/OFET fab table copy.xlsx
@@ -21,29 +21,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="125">
   <si>
     <t>Substrate Treatment</t>
   </si>
   <si>
-    <t>Solution Concentration</t>
-  </si>
-  <si>
     <t>Regioregularity</t>
   </si>
   <si>
-    <t>Annealing Temp</t>
-  </si>
-  <si>
-    <t>Annealing Time</t>
-  </si>
-  <si>
     <t>Film Thickness</t>
   </si>
   <si>
-    <t>Molecular Weight (kDa)</t>
-  </si>
-  <si>
     <t>Processing Environment</t>
   </si>
   <si>
@@ -71,9 +59,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>RT Mobility (cm^2/V/s)</t>
-  </si>
-  <si>
     <t>PDI</t>
   </si>
   <si>
@@ -137,9 +122,6 @@
     <t>OFET config.</t>
   </si>
   <si>
-    <t>OFET config</t>
-  </si>
-  <si>
     <t>BGBC</t>
   </si>
   <si>
@@ -167,9 +149,6 @@
     <t>30 min to RT</t>
   </si>
   <si>
-    <t>Evaporation Control</t>
-  </si>
-  <si>
     <t>Capped, ~30 min</t>
   </si>
   <si>
@@ -341,27 +320,12 @@
     <t>SCORES</t>
   </si>
   <si>
-    <t>Dip Rate, mm/min</t>
-  </si>
-  <si>
     <t>Mn</t>
   </si>
   <si>
     <t>RR</t>
   </si>
   <si>
-    <t>initconc</t>
-  </si>
-  <si>
-    <t>solv1</t>
-  </si>
-  <si>
-    <t>solv2</t>
-  </si>
-  <si>
-    <t>VFsolv1</t>
-  </si>
-  <si>
     <t>HR</t>
   </si>
   <si>
@@ -401,12 +365,6 @@
     <t>MobEnv</t>
   </si>
   <si>
-    <t>OFETreg</t>
-  </si>
-  <si>
-    <t>OFETconfig</t>
-  </si>
-  <si>
     <t>ChanLen</t>
   </si>
   <si>
@@ -414,6 +372,30 @@
   </si>
   <si>
     <t>RTMob</t>
+  </si>
+  <si>
+    <t>InitConc</t>
+  </si>
+  <si>
+    <t>Solv1</t>
+  </si>
+  <si>
+    <t>Solv2</t>
+  </si>
+  <si>
+    <t>VFSolv1</t>
+  </si>
+  <si>
+    <t>DipRate</t>
+  </si>
+  <si>
+    <t>EvapCont</t>
+  </si>
+  <si>
+    <t>OFETReg</t>
+  </si>
+  <si>
+    <t>OFETConfig</t>
   </si>
 </sst>
 </file>
@@ -518,8 +500,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="173">
+  <cellStyleXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -714,7 +708,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="173">
+  <cellStyles count="185">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -801,6 +795,12 @@
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -887,6 +887,12 @@
     <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -934,6 +940,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1673,6 +1680,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1745,6 +1753,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2406,6 +2415,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2473,6 +2483,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3156,6 +3167,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:txPr>
             <a:bodyPr rot="-5400000" vert="horz"/>
@@ -3591,10 +3603,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BS131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane xSplit="3020" activePane="topRight"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4940" activePane="topRight"/>
       <selection activeCell="B22" sqref="B22"/>
-      <selection pane="topRight" activeCell="B30" sqref="B30"/>
+      <selection pane="topRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3604,219 +3616,219 @@
   <sheetData>
     <row r="2" spans="1:71">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="T2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="U2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="V2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="X2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Y2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Z2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AA2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AB2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AC2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AD2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AE2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AF2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AG2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AH2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AJ2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AK2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AL2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AM2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AN2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AO2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AP2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AQ2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AR2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AS2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AT2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AU2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AV2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="AW2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="AX2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="AY2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="AZ2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="BA2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="BB2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="BC2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="BD2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="BE2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="BF2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="BG2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="BH2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="BI2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="BJ2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="BK2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="BL2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="BM2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="BN2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="BO2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="BP2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="BQ2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="BR2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="BS2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:71">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>2010</v>
@@ -4028,216 +4040,216 @@
     </row>
     <row r="4" spans="1:71">
       <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R4" t="s">
+        <v>63</v>
+      </c>
+      <c r="S4" t="s">
+        <v>63</v>
+      </c>
+      <c r="T4" t="s">
         <v>64</v>
       </c>
-      <c r="F4" t="s">
+      <c r="U4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
+      <c r="W4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE4" t="s">
         <v>66</v>
       </c>
-      <c r="H4" t="s">
+      <c r="AF4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV4" t="s">
         <v>67</v>
       </c>
-      <c r="I4" t="s">
+      <c r="AW4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
+      <c r="AY4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>70</v>
-      </c>
-      <c r="R4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S4" t="s">
-        <v>70</v>
-      </c>
-      <c r="T4" t="s">
-        <v>71</v>
-      </c>
-      <c r="U4" t="s">
-        <v>71</v>
-      </c>
-      <c r="V4" t="s">
-        <v>72</v>
-      </c>
-      <c r="W4" t="s">
-        <v>72</v>
-      </c>
-      <c r="X4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>76</v>
-      </c>
       <c r="BE4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="BF4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="BG4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="BH4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="BI4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="BJ4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="BK4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="BL4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="BM4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="BN4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="BO4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="BP4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="BQ4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="BR4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="BS4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:71" s="4" customFormat="1">
       <c r="B5" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C5" s="4">
         <v>64</v>
@@ -4449,7 +4461,7 @@
     </row>
     <row r="6" spans="1:71" s="4" customFormat="1">
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4">
         <v>1.31</v>
@@ -4628,7 +4640,7 @@
     </row>
     <row r="7" spans="1:71" s="4" customFormat="1">
       <c r="B7" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E7" s="4">
         <v>98</v>
@@ -4760,81 +4772,81 @@
         <v>92</v>
       </c>
       <c r="AV7" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AW7" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AY7" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AZ7" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="BA7" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="BB7" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="BC7" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="BD7" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="BE7" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="BF7" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="BG7" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="BH7" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="BI7" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="BJ7" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="BK7" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="BL7" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="BM7" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="BN7" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="BO7" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="BP7" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="BQ7" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="BR7" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="BS7" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:71" s="5" customFormat="1">
       <c r="B8" s="5" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C8" s="5">
         <v>5</v>
@@ -5022,269 +5034,269 @@
     </row>
     <row r="9" spans="1:71" s="5" customFormat="1">
       <c r="B9" s="5" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AC9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AD9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AF9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AG9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AH9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AI9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AJ9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AK9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AL9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AM9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AN9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AO9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AP9" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AQ9" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AR9" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AS9" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AT9" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AU9" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AV9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AW9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AX9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AY9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AZ9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="BA9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="BB9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="BC9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="BD9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="BE9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="BF9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="BG9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="BH9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="BI9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="BJ9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="BK9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="BL9" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="BM9" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="BN9" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="BO9" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="BP9" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="BQ9" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="BR9" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="BS9" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:71" s="5" customFormat="1">
       <c r="B10" s="5" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AF10" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AG10" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH10" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AI10" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AJ10" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AK10" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AL10" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AM10" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AN10" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AO10" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AQ10" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AR10" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AS10" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AT10" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AU10" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:71" s="5" customFormat="1">
       <c r="B11" s="5" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AF11" s="5">
         <v>0.995</v>
@@ -5334,7 +5346,7 @@
     </row>
     <row r="12" spans="1:71" s="14" customFormat="1">
       <c r="B12" s="14" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C12" s="14">
         <f>IF(ISBLANK(C10), 4*(LOOKUP(C9,$A$98:$A$105,$B$98:$B$105)-$B$97)^2+(LOOKUP(C9,$A$98:$A$105,$C$98:$C$105)-$C$97)^2+(LOOKUP(C9,$A$98:$A$105,$D$98:$D$105)-$D$97)^2,4*((C11*LOOKUP(C9,$A$98:$A$105,$B$98:$B$105)+(1-C11)*LOOKUP(C10,$A$98:$A$105,$B$98:$B$105))-$B$97)^2+((C11*LOOKUP(C9,$A$98:$A$105,$C$98:$C$105)+(1-C11)*LOOKUP(C10,$A$98:$A$105,$C$98:$C$105))-$C$97)^2+((C11*LOOKUP(C9,$A$98:$A$105,$D$98:$D$105)+(1-C11)*LOOKUP(C10,$A$98:$A$105,$D$98:$D$105))-$D$97)^2)</f>
@@ -5615,60 +5627,60 @@
     </row>
     <row r="13" spans="1:71" s="5" customFormat="1">
       <c r="B13" s="5" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="BD13" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="BE13" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="BF13" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="BG13" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="BH13" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="BI13" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="BJ13" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="BK13" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="BL13" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="BM13" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="BN13" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="BO13" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="BP13" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="BQ13" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="BR13" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="BS13" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:71" s="5" customFormat="1">
       <c r="B14" s="5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K14" s="5">
         <v>30</v>
@@ -5799,7 +5811,7 @@
     </row>
     <row r="15" spans="1:71" s="5" customFormat="1">
       <c r="B15" s="5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="K15" s="5">
         <v>60</v>
@@ -5930,380 +5942,380 @@
     </row>
     <row r="16" spans="1:71" s="6" customFormat="1">
       <c r="B16" s="6" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Z16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AV16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AW16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AX16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AY16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AZ16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="BA16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="BB16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="BC16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="BD16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="BE16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="BF16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="BG16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="BH16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="BI16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="BJ16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="BK16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="BL16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="BM16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="BN16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="BO16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="BP16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="BQ16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="BR16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="BS16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:71" s="7" customFormat="1">
       <c r="B17" s="7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Y17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Z17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AB17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AC17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AD17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE17" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AF17" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AG17" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AH17" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AI17" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AJ17" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AK17" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AL17" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AM17" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AN17" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AO17" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AP17" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AQ17" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AR17" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AS17" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AT17" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AU17" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AV17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AY17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AZ17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BA17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BB17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BC17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BD17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BE17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BF17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BG17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BH17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BI17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BK17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BL17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BM17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BN17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BO17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BP17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BQ17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BR17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BS17" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:71" s="7" customFormat="1">
       <c r="B18" s="7" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E18" s="7">
         <v>300</v>
@@ -6485,236 +6497,236 @@
     </row>
     <row r="19" spans="2:71" s="7" customFormat="1">
       <c r="B19" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE19" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AF19" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AG19" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AH19" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AI19" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AJ19" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AK19" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AL19" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AM19" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AN19" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AO19" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AP19" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AQ19" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AR19" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AS19" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AT19" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AU19" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:71" s="7" customFormat="1">
       <c r="B20" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T20" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="V20" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="W20" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="X20" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Y20" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z20" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AA20" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AB20" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AC20" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AD20" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AV20" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AW20" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AX20" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AY20" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AZ20" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="BA20" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="BB20" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="BC20" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="BD20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="BE20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="BF20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="BG20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="BH20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="BI20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="BJ20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="BK20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="BL20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="BM20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="BN20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="BO20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="BP20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="BQ20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="BR20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="BS20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:71">
       <c r="B21" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K21">
         <v>125</v>
@@ -6788,7 +6800,7 @@
     </row>
     <row r="22" spans="2:71">
       <c r="B22" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -6866,770 +6878,770 @@
     </row>
     <row r="23" spans="2:71">
       <c r="B23" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="K23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AV23" s="12"/>
       <c r="AW23" s="12" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AY23" s="13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="BA23" s="13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="BC23" s="13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:71" s="8" customFormat="1">
       <c r="B24" s="8" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Y24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Z24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AA24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AB24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AC24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AD24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AF24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AG24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AH24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AI24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AJ24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AK24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AL24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AM24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AN24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AO24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AP24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AQ24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AR24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AS24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AT24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AU24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AY24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AZ24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BA24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BB24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BC24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BD24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BE24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BF24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BG24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BH24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BI24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BK24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BL24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BM24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BN24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BO24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BP24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BQ24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BR24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BS24" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:71" s="8" customFormat="1">
       <c r="B25" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="U25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="V25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="W25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="X25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Y25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Z25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AA25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AB25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AC25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AD25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AE25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AF25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AG25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AH25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AI25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AJ25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AK25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AL25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AM25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AN25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AO25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AP25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AQ25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AR25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AS25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AT25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AU25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AV25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AW25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AX25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AY25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AZ25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="BA25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="BB25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="BC25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="BD25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="BE25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="BF25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="BG25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="BH25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="BI25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="BJ25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="BK25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="BL25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="BM25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="BN25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="BO25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="BP25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="BQ25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="BR25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="BS25" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:71" s="8" customFormat="1">
       <c r="B26" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="T26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="U26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="V26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="X26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Y26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Z26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AA26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AB26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AC26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AD26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AE26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AF26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AG26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AH26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AI26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AJ26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AK26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AL26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AM26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AN26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AO26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AP26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AQ26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AR26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AS26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AT26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AU26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AV26" s="8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AW26" s="8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AX26" s="8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AY26" s="8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AZ26" s="8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="BA26" s="8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="BB26" s="8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="BC26" s="8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="BD26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="BE26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="BF26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="BG26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="BH26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="BI26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="BJ26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="BK26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="BL26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="BM26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="BN26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="BO26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="BP26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="BQ26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="BR26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="BS26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:71" s="8" customFormat="1">
       <c r="B27" s="8" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="BD27" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="BE27" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="BF27" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="BG27" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="BH27" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="BI27" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="BJ27" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="BK27" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="BL27" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="BM27" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="BN27" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="BO27" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="BP27" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="BQ27" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="BR27" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="BS27" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:71" s="8" customFormat="1">
       <c r="B28" s="8" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="BD28" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="BE28" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="BF28" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="BG28" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="BH28" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="BI28" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="BJ28" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="BK28" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="BL28" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="BM28" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="BN28" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="BO28" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="BP28" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="BQ28" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="BR28" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="BS28" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="2:71" s="8" customFormat="1">
       <c r="B29" s="8" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C29" s="8">
         <v>0.1</v>
@@ -7835,63 +7847,63 @@
     </row>
     <row r="30" spans="2:71">
       <c r="C30" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="2:71" s="2" customFormat="1" ht="78" customHeight="1">
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="2:71">
       <c r="C32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="B34" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C34">
         <v>2006</v>
@@ -7914,30 +7926,30 @@
     </row>
     <row r="35" spans="1:8">
       <c r="B35" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F35" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H35" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="4" customFormat="1">
       <c r="B36" s="4" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="C36" s="4">
         <v>1.0900000000000001</v>
@@ -7960,7 +7972,7 @@
     </row>
     <row r="37" spans="1:8" s="4" customFormat="1">
       <c r="B37" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C37" s="4">
         <v>1.31</v>
@@ -7983,7 +7995,7 @@
     </row>
     <row r="38" spans="1:8" s="4" customFormat="1">
       <c r="B38" s="4" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="C38" s="4">
         <v>98</v>
@@ -8006,7 +8018,7 @@
     </row>
     <row r="39" spans="1:8" s="5" customFormat="1">
       <c r="B39" s="5" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
@@ -8029,40 +8041,40 @@
     </row>
     <row r="40" spans="1:8" s="5" customFormat="1">
       <c r="B40" s="5" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="5" customFormat="1">
       <c r="B41" s="5" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="5" customFormat="1">
       <c r="B42" s="5" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="14" customFormat="1">
       <c r="B43" s="14" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C43" s="14">
         <f>IF(ISBLANK(C41), 4*(LOOKUP(C40,$A$98:$A$105,$B$98:$B$105)-$B$97)^2+(LOOKUP(C40,$A$98:$A$105,$C$98:$C$105)-$C$97)^2+(LOOKUP(C40,$A$98:$A$105,$D$98:$D$105)-$D$97)^2,4*((C42*LOOKUP(C40,$A$98:$A$105,$B$98:$B$105)+(1-C42)*LOOKUP(C41,$A$98:$A$105,$B$98:$B$105))-$B$97)^2+((C42*LOOKUP(C40,$A$98:$A$105,$C$98:$C$105)+(1-C42)*LOOKUP(C41,$A$98:$A$105,$C$98:$C$105))-$C$97)^2+((C42*LOOKUP(C40,$A$98:$A$105,$D$98:$D$105)+(1-C42)*LOOKUP(C41,$A$98:$A$105,$D$98:$D$105))-$D$97)^2)</f>
@@ -8091,68 +8103,68 @@
     </row>
     <row r="44" spans="1:8" s="5" customFormat="1">
       <c r="B44" s="10" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="5" customFormat="1">
-      <c r="B45" s="10" t="s">
-        <v>99</v>
+      <c r="B45" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="5" customFormat="1">
-      <c r="B46" s="10" t="s">
-        <v>100</v>
+      <c r="B46" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="6" customFormat="1">
       <c r="B47" s="6" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="7" customFormat="1">
       <c r="B48" s="7" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:19" s="7" customFormat="1">
       <c r="B49" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C49" s="7">
         <v>0.2</v>
@@ -8175,124 +8187,124 @@
     </row>
     <row r="50" spans="1:19" s="7" customFormat="1">
       <c r="B50" s="7" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="B51" t="s">
-        <v>3</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:19">
       <c r="B52" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="B53" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:19" s="8" customFormat="1">
       <c r="B54" s="8" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:19" s="8" customFormat="1">
       <c r="B55" s="8" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:19" s="8" customFormat="1">
       <c r="B56" s="8" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:19" s="8" customFormat="1">
       <c r="B57" s="8" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:19" s="8" customFormat="1">
       <c r="B58" s="8" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:19" s="8" customFormat="1">
       <c r="B59" s="8" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="D59" s="9">
         <v>1.1400000000000001E-4</v>
@@ -8309,71 +8321,71 @@
     </row>
     <row r="61" spans="1:19">
       <c r="B61" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I63" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K63" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L63" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="M63" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="N63" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="O63" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="P63" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="Q63" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="R63" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="S63" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:19">
       <c r="B64" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C64">
         <v>2006</v>
@@ -8429,63 +8441,63 @@
     </row>
     <row r="65" spans="2:19">
       <c r="B65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65" t="s">
+        <v>58</v>
+      </c>
+      <c r="F65" t="s">
+        <v>58</v>
+      </c>
+      <c r="G65" t="s">
+        <v>58</v>
+      </c>
+      <c r="H65" t="s">
+        <v>58</v>
+      </c>
+      <c r="I65" t="s">
         <v>63</v>
       </c>
-      <c r="C65" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65" t="s">
-        <v>65</v>
-      </c>
-      <c r="E65" t="s">
-        <v>65</v>
-      </c>
-      <c r="F65" t="s">
-        <v>65</v>
-      </c>
-      <c r="G65" t="s">
-        <v>65</v>
-      </c>
-      <c r="H65" t="s">
-        <v>65</v>
-      </c>
-      <c r="I65" t="s">
-        <v>70</v>
-      </c>
       <c r="J65" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K65" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L65" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M65" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="N65" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="O65" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="P65" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="Q65" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="R65" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="S65" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="2:19" s="4" customFormat="1">
       <c r="B66" s="4" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="C66" s="4">
         <v>1.0900000000000001</v>
@@ -8541,7 +8553,7 @@
     </row>
     <row r="67" spans="2:19" s="4" customFormat="1">
       <c r="B67" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C67" s="4">
         <v>1.31</v>
@@ -8588,7 +8600,7 @@
     </row>
     <row r="68" spans="2:19" s="4" customFormat="1">
       <c r="B68" s="4" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="C68" s="4">
         <v>98</v>
@@ -8618,33 +8630,33 @@
         <v>98</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="Q68" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="R68" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="S68" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="2:19" s="5" customFormat="1">
       <c r="B69" s="5" t="s">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="C69" s="5">
         <v>0.5</v>
@@ -8700,86 +8712,86 @@
     </row>
     <row r="70" spans="2:19" s="5" customFormat="1">
       <c r="B70" s="5" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="P70" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Q70" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="R70" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="S70" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="2:19" s="5" customFormat="1">
       <c r="B71" s="5" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="2:19" s="5" customFormat="1">
       <c r="B72" s="5" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="C72" s="5">
         <v>0.82399999999999995</v>
@@ -8802,7 +8814,7 @@
     </row>
     <row r="73" spans="2:19" s="14" customFormat="1">
       <c r="B73" s="14" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C73" s="14">
         <f>IF(ISBLANK(C71), 4*(LOOKUP(C70,$A$98:$A$105,$B$98:$B$105)-$B$97)^2+(LOOKUP(C70,$A$98:$A$105,$C$98:$C$105)-$C$97)^2+(LOOKUP(C70,$A$98:$A$105,$D$98:$D$105)-$D$97)^2,4*((C72*LOOKUP(C70,$A$98:$A$105,$B$98:$B$105)+(1-C72)*LOOKUP(C71,$A$98:$A$105,$B$98:$B$105))-$B$97)^2+((C72*LOOKUP(C70,$A$98:$A$105,$C$98:$C$105)+(1-C72)*LOOKUP(C71,$A$98:$A$105,$C$98:$C$105))-$C$97)^2+((C72*LOOKUP(C70,$A$98:$A$105,$D$98:$D$105)+(1-C72)*LOOKUP(C71,$A$98:$A$105,$D$98:$D$105))-$D$97)^2)</f>
@@ -8874,8 +8886,8 @@
       </c>
     </row>
     <row r="74" spans="2:19" s="5" customFormat="1">
-      <c r="B74" s="10" t="s">
-        <v>33</v>
+      <c r="B74" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -8884,33 +8896,33 @@
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
       <c r="L74" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="M74" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="O74" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="P74" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="Q74" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="R74" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="S74" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="2:19" s="5" customFormat="1">
-      <c r="B75" s="10" t="s">
-        <v>99</v>
+      <c r="B75" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -8953,8 +8965,8 @@
       </c>
     </row>
     <row r="76" spans="2:19" s="5" customFormat="1">
-      <c r="B76" s="10" t="s">
-        <v>100</v>
+      <c r="B76" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -8998,189 +9010,189 @@
     </row>
     <row r="77" spans="2:19" s="6" customFormat="1">
       <c r="B77" s="6" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M77" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N77" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O77" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P77" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Q77" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R77" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="S77" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="2:19" s="7" customFormat="1">
       <c r="B78" s="7" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N78" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R78" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S78" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="2:19" s="7" customFormat="1">
       <c r="B79" s="7" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="2:19" s="7" customFormat="1">
       <c r="B80" s="7" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="M80" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N80" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="R80" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="S80" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:19">
       <c r="B81" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L81" s="12">
         <v>100</v>
@@ -9209,7 +9221,7 @@
     </row>
     <row r="82" spans="1:19">
       <c r="B82" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L82" s="12">
         <v>10</v>
@@ -9238,7 +9250,7 @@
     </row>
     <row r="83" spans="1:19">
       <c r="B83" s="12" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="L83" s="12"/>
       <c r="M83" s="12"/>
@@ -9251,233 +9263,233 @@
     </row>
     <row r="84" spans="1:19" s="8" customFormat="1">
       <c r="B84" s="8" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N84" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P84" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q84" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R84" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S84" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:19" s="8" customFormat="1">
       <c r="B85" s="8" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O85" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P85" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Q85" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="R85" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="S85" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="1:19" s="8" customFormat="1">
       <c r="B86" s="8" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M86" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N86" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="P86" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q86" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R86" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="S86" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:19" s="8" customFormat="1">
       <c r="B87" s="8" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="P87" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="Q87" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="R87" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="S87" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:19" s="8" customFormat="1">
       <c r="B88" s="8" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="M88" s="8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N88" s="8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="O88" s="8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P88" s="8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="Q88" s="8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="R88" s="8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="S88" s="8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:19" s="8" customFormat="1">
       <c r="B89" s="8" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="C89" s="9">
         <v>1.4600000000000001E-5</v>
@@ -9534,7 +9546,7 @@
     </row>
     <row r="91" spans="1:19">
       <c r="B91" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L91" s="12"/>
     </row>
@@ -9543,34 +9555,34 @@
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:19">
       <c r="B95" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:19">
       <c r="B96" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B97">
         <v>19.45</v>
@@ -9584,7 +9596,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B98">
         <v>14.9</v>
@@ -9598,7 +9610,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B99">
         <v>15.5</v>
@@ -9615,7 +9627,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B100">
         <v>19</v>
@@ -9629,7 +9641,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B101">
         <v>17.8</v>
@@ -9646,7 +9658,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B102">
         <v>19.2</v>
@@ -9663,7 +9675,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B103">
         <v>17.600000000000001</v>
@@ -9680,7 +9692,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B104">
         <v>20.2</v>
@@ -9697,7 +9709,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B105">
         <v>16.8</v>
@@ -9714,62 +9726,62 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119" spans="1:1">
@@ -9779,62 +9791,62 @@
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
